--- a/biology/Botanique/Mordecai_Cubitt_Cooke/Mordecai_Cubitt_Cooke.xlsx
+++ b/biology/Botanique/Mordecai_Cubitt_Cooke/Mordecai_Cubitt_Cooke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mordecai Cubitt Cooke est un botaniste britannique, né le 12 juillet 1825 à Horning et mort le 12 novembre 1914.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il devient apprenti chez un marchand de tissu avant de devenir clerc chez un notaire. Il enseigne l’histoire naturelle au muséum de l’Inde de 1860 à 1880 avant de venir travailler aux Jardins botaniques royaux de Kew. Il reçoit la médaille Victoria de l'honneur attribuée par la Royal Horticultural Society et la médaille linnéenne en 1903.
 Il obtient plusieurs diplômes honorifiques : un Master of Arts à l’université St Lawrence en 1870, un Master of Arts à Yale en 1873 et un Doctorat of Laws à l’université de New York.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>The Seven Sisters of Sleep. Popular history of the seven prevailing narcotics of the world (James Blackwood, Londres, 1860).
 A Manual of Structural Botany: for the use of classes, schools, &amp; private students... With upwards of 200 illustrations by Ruffle (Robert Hardwicke, Londres, 1861, réédité en 1877)
@@ -612,7 +628,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mary P. English (1987), Mordecai Cubitt Cooke : Victorian naturalist, mycologist, teacher &amp; eccentric. Biopress (Bristol).  (ISBN 0948737026)</t>
         </is>
